--- a/results/comparaison/WM/retardance/mean_raw_data.xlsx
+++ b/results/comparaison/WM/retardance/mean_raw_data.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:AE3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:31">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -388,65 +388,255 @@
       <c r="F1" s="1">
         <v>4</v>
       </c>
+      <c r="G1" s="1">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:31">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.99914729232938</v>
+        <v>12.33256475633686</v>
       </c>
       <c r="C2">
-        <v>12.21069358793363</v>
+        <v>12.60135284211738</v>
       </c>
       <c r="D2">
-        <v>28.71369233346061</v>
+        <v>17.4380369930796</v>
       </c>
       <c r="E2">
-        <v>15.61752409767049</v>
+        <v>13.02169734385369</v>
       </c>
       <c r="F2">
-        <v>13.3263287750303</v>
+        <v>13.6060892107573</v>
+      </c>
+      <c r="G2">
+        <v>27.60703846502892</v>
+      </c>
+      <c r="H2">
+        <v>23.37478398728553</v>
+      </c>
+      <c r="I2">
+        <v>19.82084890875296</v>
+      </c>
+      <c r="J2">
+        <v>21.42571403909536</v>
+      </c>
+      <c r="K2">
+        <v>15.19230373947621</v>
+      </c>
+      <c r="L2">
+        <v>13.31077742704537</v>
+      </c>
+      <c r="M2">
+        <v>14.3104864406472</v>
+      </c>
+      <c r="N2">
+        <v>16.46983269193967</v>
+      </c>
+      <c r="O2">
+        <v>12.59692342725913</v>
+      </c>
+      <c r="P2">
+        <v>15.39801705719503</v>
+      </c>
+      <c r="Q2">
+        <v>17.15589997373679</v>
+      </c>
+      <c r="R2">
+        <v>16.30172851628775</v>
+      </c>
+      <c r="S2">
+        <v>18.84783860615498</v>
+      </c>
+      <c r="T2">
+        <v>12.71513668283943</v>
+      </c>
+      <c r="U2">
+        <v>12.51728524990999</v>
+      </c>
+      <c r="V2">
+        <v>17.75430623527639</v>
+      </c>
+      <c r="W2">
+        <v>14.58075249360452</v>
+      </c>
+      <c r="X2">
+        <v>22.42882049679216</v>
+      </c>
+      <c r="Y2">
+        <v>22.61044128730436</v>
+      </c>
+      <c r="Z2">
+        <v>37.27937748937504</v>
+      </c>
+      <c r="AA2">
+        <v>23.86174426831092</v>
+      </c>
+      <c r="AB2">
+        <v>31.55691638063772</v>
+      </c>
+      <c r="AC2">
+        <v>17.52738432857578</v>
+      </c>
+      <c r="AD2">
+        <v>14.25677916616046</v>
+      </c>
+      <c r="AE2">
+        <v>18.83391333176122</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:31">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.2030288602873</v>
-      </c>
-      <c r="C3">
-        <v>12.78887226778596</v>
-      </c>
-      <c r="D3">
-        <v>32.16280799860183</v>
+        <v>19.26410204218708</v>
       </c>
       <c r="E3">
-        <v>14.80575730716647</v>
+        <v>12.9776978666538</v>
       </c>
       <c r="F3">
-        <v>15.7680207275907</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>19.94906316202591</v>
-      </c>
-      <c r="C4">
-        <v>18.19929774548121</v>
-      </c>
-      <c r="D4">
-        <v>23.06466797651795</v>
-      </c>
-      <c r="E4">
-        <v>16.89909982915355</v>
-      </c>
-      <c r="F4">
-        <v>23.4118150983467</v>
+        <v>13.87701882570196</v>
+      </c>
+      <c r="G3">
+        <v>25.30042163086678</v>
+      </c>
+      <c r="H3">
+        <v>23.39502937637507</v>
+      </c>
+      <c r="I3">
+        <v>20.9885299526882</v>
+      </c>
+      <c r="J3">
+        <v>29.34231933332502</v>
+      </c>
+      <c r="K3">
+        <v>16.32010256044926</v>
+      </c>
+      <c r="L3">
+        <v>19.85528364556541</v>
+      </c>
+      <c r="M3">
+        <v>19.29088872097081</v>
+      </c>
+      <c r="O3">
+        <v>13.38778043316951</v>
+      </c>
+      <c r="P3">
+        <v>25.41008164905626</v>
+      </c>
+      <c r="Q3">
+        <v>22.91430537240005</v>
+      </c>
+      <c r="R3">
+        <v>22.2895596278925</v>
+      </c>
+      <c r="S3">
+        <v>19.41592507313195</v>
+      </c>
+      <c r="V3">
+        <v>13.48667570521824</v>
+      </c>
+      <c r="W3">
+        <v>15.96638599911035</v>
+      </c>
+      <c r="X3">
+        <v>20.92380461775999</v>
+      </c>
+      <c r="Y3">
+        <v>16.6916704281808</v>
+      </c>
+      <c r="Z3">
+        <v>19.11159255028552</v>
+      </c>
+      <c r="AA3">
+        <v>16.65254212729648</v>
+      </c>
+      <c r="AB3">
+        <v>8.726161622421625</v>
+      </c>
+      <c r="AC3">
+        <v>16.60098307969457</v>
+      </c>
+      <c r="AD3">
+        <v>14.05008202140126</v>
+      </c>
+      <c r="AE3">
+        <v>19.86566770971467</v>
       </c>
     </row>
   </sheetData>
